--- a/biology/Botanique/Coccothrinax_crinita/Coccothrinax_crinita.xlsx
+++ b/biology/Botanique/Coccothrinax_crinita/Coccothrinax_crinita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coccothrinax crinita est une espèce de plantes de la famille des Arecaceae.
 </t>
@@ -511,18 +523,20 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (9 avril 2019)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (9 avril 2019) :
 sous-espèce Coccothrinax crinita subsp. brevicrinis Borhidi &amp; O.Muñiz
 sous-espèce Coccothrinax crinita subsp. crinita
-Selon World Checklist of Selected Plant Families (WCSP)  (9 avril 2019)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (9 avril 2019) :
 sous-espèce Coccothrinax crinita subsp. brevicrinis Borhidi &amp; O.Muñiz (1981 publ. 1982)
 sous-espèce Coccothrinax crinita subsp. crinita
-Selon NCBI  (9 avril 2019)[5] :
+Selon NCBI  (9 avril 2019) :
 sous-espèce Coccothrinax crinita subsp. brevicrinis Borhidi &amp; O.Muniz
 sous-espèce Coccothrinax crinita subsp. crinita
-Selon Tropicos                                           (9 avril 2019)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 avril 2019) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Coccothrinax crinita subsp. brevicrinis Borhidi &amp; O. Muñiz
 sous-espèce Coccothrinax crinita subsp. crinita</t>
         </is>
@@ -552,7 +566,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Webbia 2: 334. 1907.</t>
         </is>
